--- a/Tugas 2/gaussian.xlsx
+++ b/Tugas 2/gaussian.xlsx
@@ -1471,7 +1471,7 @@
         <v>216</v>
       </c>
       <c r="FJ2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="FK2">
         <v>197</v>
@@ -1507,16 +1507,16 @@
         <v>206</v>
       </c>
       <c r="FV2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="FW2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="FX2">
         <v>206</v>
       </c>
       <c r="FY2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="FZ2">
         <v>206</v>
@@ -1555,13 +1555,13 @@
         <v>203</v>
       </c>
       <c r="GL2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="GM2">
         <v>204</v>
       </c>
       <c r="GN2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="GO2">
         <v>205</v>
@@ -1992,7 +1992,7 @@
         <v>65</v>
       </c>
       <c r="EH3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="EI3">
         <v>23</v>
@@ -2064,16 +2064,16 @@
         <v>217</v>
       </c>
       <c r="FF3">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="FG3">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="FH3">
         <v>220</v>
       </c>
       <c r="FI3">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="FJ3">
         <v>205</v>
@@ -2112,7 +2112,7 @@
         <v>206</v>
       </c>
       <c r="FV3">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="FW3">
         <v>205</v>
@@ -2160,7 +2160,7 @@
         <v>203</v>
       </c>
       <c r="GL3">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="GM3">
         <v>204</v>
@@ -2169,13 +2169,13 @@
         <v>204</v>
       </c>
       <c r="GO3">
+        <v>205</v>
+      </c>
+      <c r="GP3">
+        <v>205</v>
+      </c>
+      <c r="GQ3">
         <v>204</v>
-      </c>
-      <c r="GP3">
-        <v>204</v>
-      </c>
-      <c r="GQ3">
-        <v>203</v>
       </c>
       <c r="GR3">
         <v>202</v>
@@ -2672,7 +2672,7 @@
         <v>217</v>
       </c>
       <c r="FG4">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="FH4">
         <v>220</v>
@@ -2708,7 +2708,7 @@
         <v>197</v>
       </c>
       <c r="FS4">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="FT4">
         <v>204</v>
@@ -2756,7 +2756,7 @@
         <v>204</v>
       </c>
       <c r="GI4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="GJ4">
         <v>203</v>
@@ -2771,10 +2771,10 @@
         <v>204</v>
       </c>
       <c r="GN4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="GO4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="GP4">
         <v>204</v>
@@ -2783,7 +2783,7 @@
         <v>204</v>
       </c>
       <c r="GR4">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="GS4">
         <v>200</v>
@@ -3118,7 +3118,7 @@
         <v>252</v>
       </c>
       <c r="DF5">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="DG5">
         <v>250</v>
@@ -3196,7 +3196,7 @@
         <v>243</v>
       </c>
       <c r="EF5">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EG5">
         <v>64</v>
@@ -3277,7 +3277,7 @@
         <v>217</v>
       </c>
       <c r="FG5">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="FH5">
         <v>220</v>
@@ -3358,13 +3358,13 @@
         <v>206</v>
       </c>
       <c r="GH5">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="GI5">
         <v>205</v>
       </c>
       <c r="GJ5">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="GK5">
         <v>204</v>
@@ -3391,7 +3391,7 @@
         <v>200</v>
       </c>
       <c r="GS5">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:201">
@@ -3720,10 +3720,10 @@
         <v>252</v>
       </c>
       <c r="DE6">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="DF6">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="DG6">
         <v>246</v>
@@ -3735,7 +3735,7 @@
         <v>243</v>
       </c>
       <c r="DJ6">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="DK6">
         <v>248</v>
@@ -3804,7 +3804,7 @@
         <v>177</v>
       </c>
       <c r="EG6">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="EH6">
         <v>11</v>
@@ -3984,7 +3984,7 @@
         <v>202</v>
       </c>
       <c r="GO6">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="GP6">
         <v>201</v>
@@ -4343,7 +4343,7 @@
         <v>217</v>
       </c>
       <c r="DK7">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="DL7">
         <v>248</v>
@@ -4406,13 +4406,13 @@
         <v>243</v>
       </c>
       <c r="EF7">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="EG7">
         <v>63</v>
       </c>
       <c r="EH7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="EI7">
         <v>24</v>
@@ -4586,10 +4586,10 @@
         <v>203</v>
       </c>
       <c r="GN7">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="GO7">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="GP7">
         <v>198</v>
@@ -4930,7 +4930,7 @@
         <v>248</v>
       </c>
       <c r="DE8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="DF8">
         <v>220</v>
@@ -5008,16 +5008,16 @@
         <v>252</v>
       </c>
       <c r="EE8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="EF8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="EG8">
         <v>61</v>
       </c>
       <c r="EH8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="EI8">
         <v>23</v>
@@ -5191,7 +5191,7 @@
         <v>203</v>
       </c>
       <c r="GN8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="GO8">
         <v>199</v>
@@ -5532,10 +5532,10 @@
         <v>247</v>
       </c>
       <c r="DD9">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="DE9">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="DF9">
         <v>164</v>
@@ -5544,13 +5544,13 @@
         <v>111</v>
       </c>
       <c r="DH9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="DI9">
         <v>75</v>
       </c>
       <c r="DJ9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="DK9">
         <v>195</v>
@@ -5622,7 +5622,7 @@
         <v>60</v>
       </c>
       <c r="EH9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="EI9">
         <v>24</v>
@@ -5751,7 +5751,7 @@
         <v>193</v>
       </c>
       <c r="FY9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="FZ9">
         <v>168</v>
@@ -6134,13 +6134,13 @@
         <v>250</v>
       </c>
       <c r="DC10">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="DD10">
         <v>211</v>
       </c>
       <c r="DE10">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="DF10">
         <v>98</v>
@@ -7003,7 +7003,7 @@
         <v>203</v>
       </c>
       <c r="GM11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="GN11">
         <v>197</v>
@@ -7356,7 +7356,7 @@
         <v>44</v>
       </c>
       <c r="DG12">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DH12">
         <v>41</v>
@@ -7958,7 +7958,7 @@
         <v>50</v>
       </c>
       <c r="DF13">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="DG13">
         <v>41</v>
@@ -7973,7 +7973,7 @@
         <v>73</v>
       </c>
       <c r="DK13">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="DL13">
         <v>215</v>
@@ -8048,7 +8048,7 @@
         <v>24</v>
       </c>
       <c r="EJ13">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="EK13">
         <v>99</v>
@@ -8225,7 +8225,7 @@
         <v>179</v>
       </c>
       <c r="GQ13">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="GR13">
         <v>175</v>
@@ -8578,13 +8578,13 @@
         <v>69</v>
       </c>
       <c r="DK14">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="DL14">
         <v>208</v>
       </c>
       <c r="DM14">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="DN14">
         <v>253</v>
@@ -8647,10 +8647,10 @@
         <v>57</v>
       </c>
       <c r="EH14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="EI14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="EJ14">
         <v>63</v>
@@ -8827,7 +8827,7 @@
         <v>182</v>
       </c>
       <c r="GP14">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="GQ14">
         <v>176</v>
@@ -9165,7 +9165,7 @@
         <v>52</v>
       </c>
       <c r="DE15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DF15">
         <v>47</v>
@@ -9186,7 +9186,7 @@
         <v>112</v>
       </c>
       <c r="DL15">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="DM15">
         <v>247</v>
@@ -9294,10 +9294,10 @@
         <v>179</v>
       </c>
       <c r="EV15">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="EW15">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="EX15">
         <v>162</v>
@@ -9788,10 +9788,10 @@
         <v>60</v>
       </c>
       <c r="DK16">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="DL16">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="DM16">
         <v>244</v>
@@ -10396,7 +10396,7 @@
         <v>107</v>
       </c>
       <c r="DL17">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="DM17">
         <v>242</v>
@@ -10495,7 +10495,7 @@
         <v>188</v>
       </c>
       <c r="ES17">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="ET17">
         <v>186</v>
@@ -10504,13 +10504,13 @@
         <v>178</v>
       </c>
       <c r="EV17">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="EW17">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="EX17">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="EY17">
         <v>163</v>
@@ -10585,13 +10585,13 @@
         <v>158</v>
       </c>
       <c r="FW17">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="FX17">
         <v>130</v>
       </c>
       <c r="FY17">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="FZ17">
         <v>124</v>
@@ -10923,19 +10923,19 @@
         <v>252</v>
       </c>
       <c r="CL18">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="CM18">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="CN18">
         <v>253</v>
       </c>
       <c r="CO18">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="CP18">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="CQ18">
         <v>253</v>
@@ -10968,7 +10968,7 @@
         <v>124</v>
       </c>
       <c r="DA18">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="DB18">
         <v>55</v>
@@ -11067,7 +11067,7 @@
         <v>55</v>
       </c>
       <c r="EH18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="EI18">
         <v>25</v>
@@ -11097,7 +11097,7 @@
         <v>177</v>
       </c>
       <c r="ER18">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="ES18">
         <v>187</v>
@@ -11118,7 +11118,7 @@
         <v>161</v>
       </c>
       <c r="EY18">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="EZ18">
         <v>165</v>
@@ -11534,10 +11534,10 @@
         <v>250</v>
       </c>
       <c r="CN19">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CO19">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CP19">
         <v>251</v>
@@ -11681,10 +11681,10 @@
         <v>60</v>
       </c>
       <c r="EK19">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="EL19">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="EM19">
         <v>160</v>
@@ -11708,7 +11708,7 @@
         <v>185</v>
       </c>
       <c r="ET19">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="EU19">
         <v>176</v>
@@ -11723,7 +11723,7 @@
         <v>160</v>
       </c>
       <c r="EY19">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="EZ19">
         <v>166</v>
@@ -11795,7 +11795,7 @@
         <v>145</v>
       </c>
       <c r="FW19">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="FX19">
         <v>132</v>
@@ -12145,13 +12145,13 @@
         <v>248</v>
       </c>
       <c r="CP20">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="CQ20">
         <v>249</v>
       </c>
       <c r="CR20">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="CS20">
         <v>248</v>
@@ -12166,19 +12166,19 @@
         <v>243</v>
       </c>
       <c r="CW20">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="CX20">
         <v>159</v>
       </c>
       <c r="CY20">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CZ20">
         <v>66</v>
       </c>
       <c r="DA20">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="DB20">
         <v>52</v>
@@ -12403,13 +12403,13 @@
         <v>133</v>
       </c>
       <c r="FX20">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="FY20">
         <v>133</v>
       </c>
       <c r="FZ20">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="GA20">
         <v>132</v>
@@ -12927,16 +12927,16 @@
         <v>163</v>
       </c>
       <c r="EW21">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="EX21">
         <v>159</v>
       </c>
       <c r="EY21">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="EZ21">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="FA21">
         <v>175</v>
@@ -13008,7 +13008,7 @@
         <v>132</v>
       </c>
       <c r="FX21">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="FY21">
         <v>133</v>
@@ -13017,7 +13017,7 @@
         <v>133</v>
       </c>
       <c r="GA21">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="GB21">
         <v>133</v>
@@ -13535,10 +13535,10 @@
         <v>159</v>
       </c>
       <c r="EX22">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="EY22">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="EZ22">
         <v>163</v>
@@ -13613,7 +13613,7 @@
         <v>133</v>
       </c>
       <c r="FX22">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="FY22">
         <v>133</v>
@@ -13625,7 +13625,7 @@
         <v>133</v>
       </c>
       <c r="GB22">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="GC22">
         <v>131</v>
@@ -13909,7 +13909,7 @@
         <v>252</v>
       </c>
       <c r="BY23">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BZ23">
         <v>251</v>
@@ -14544,7 +14544,7 @@
         <v>184</v>
       </c>
       <c r="CI24">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="CJ24">
         <v>162</v>
@@ -15119,7 +15119,7 @@
         <v>237</v>
       </c>
       <c r="BY25">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="BZ25">
         <v>220</v>
@@ -15140,7 +15140,7 @@
         <v>171</v>
       </c>
       <c r="CF25">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CG25">
         <v>154</v>
@@ -15164,7 +15164,7 @@
         <v>106</v>
       </c>
       <c r="CN25">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="CO25">
         <v>106</v>
@@ -15227,7 +15227,7 @@
         <v>125</v>
       </c>
       <c r="DI25">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DJ25">
         <v>132</v>
@@ -15275,7 +15275,7 @@
         <v>243</v>
       </c>
       <c r="DY25">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="DZ25">
         <v>245</v>
@@ -15601,7 +15601,7 @@
         <v>252</v>
       </c>
       <c r="AJ26">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AK26">
         <v>252</v>
@@ -15745,7 +15745,7 @@
         <v>134</v>
       </c>
       <c r="CF26">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="CG26">
         <v>120</v>
@@ -16185,10 +16185,10 @@
         <v>252</v>
       </c>
       <c r="AC27">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AD27">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AE27">
         <v>247</v>
@@ -16206,7 +16206,7 @@
         <v>247</v>
       </c>
       <c r="AJ27">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK27">
         <v>247</v>
@@ -16314,7 +16314,7 @@
         <v>245</v>
       </c>
       <c r="BT27">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BU27">
         <v>230</v>
@@ -16482,7 +16482,7 @@
         <v>246</v>
       </c>
       <c r="DX27">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="DY27">
         <v>243</v>
@@ -16796,7 +16796,7 @@
         <v>234</v>
       </c>
       <c r="AE28">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF28">
         <v>220</v>
@@ -16811,10 +16811,10 @@
         <v>227</v>
       </c>
       <c r="AJ28">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK28">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AL28">
         <v>248</v>
@@ -16943,7 +16943,7 @@
         <v>98</v>
       </c>
       <c r="CB28">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="CC28">
         <v>99</v>
@@ -17045,7 +17045,7 @@
         <v>122</v>
       </c>
       <c r="DJ28">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="DK28">
         <v>104</v>
@@ -17054,13 +17054,13 @@
         <v>139</v>
       </c>
       <c r="DM28">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="DN28">
         <v>246</v>
       </c>
       <c r="DO28">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="DP28">
         <v>251</v>
@@ -17401,13 +17401,13 @@
         <v>183</v>
       </c>
       <c r="AE29">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF29">
         <v>149</v>
       </c>
       <c r="AG29">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH29">
         <v>150</v>
@@ -17539,7 +17539,7 @@
         <v>120</v>
       </c>
       <c r="BY29">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BZ29">
         <v>104</v>
@@ -17662,7 +17662,7 @@
         <v>209</v>
       </c>
       <c r="DN29">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="DO29">
         <v>248</v>
@@ -17692,7 +17692,7 @@
         <v>245</v>
       </c>
       <c r="DX29">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="DY29">
         <v>242</v>
@@ -17740,7 +17740,7 @@
         <v>149</v>
       </c>
       <c r="EN29">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="EO29">
         <v>149</v>
@@ -18015,7 +18015,7 @@
         <v>72</v>
       </c>
       <c r="AH30">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI30">
         <v>80</v>
@@ -18051,7 +18051,7 @@
         <v>251</v>
       </c>
       <c r="AT30">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AU30">
         <v>252</v>
@@ -18129,7 +18129,7 @@
         <v>147</v>
       </c>
       <c r="BT30">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BU30">
         <v>130</v>
@@ -18141,7 +18141,7 @@
         <v>116</v>
       </c>
       <c r="BX30">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BY30">
         <v>115</v>
@@ -18258,7 +18258,7 @@
         <v>135</v>
       </c>
       <c r="DK30">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="DL30">
         <v>150</v>
@@ -18432,10 +18432,10 @@
         <v>182</v>
       </c>
       <c r="FQ30">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="FR30">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="FS30">
         <v>181</v>
@@ -18629,13 +18629,13 @@
         <v>51</v>
       </c>
       <c r="AK31">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL31">
         <v>64</v>
       </c>
       <c r="AM31">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN31">
         <v>112</v>
@@ -18668,7 +18668,7 @@
         <v>251</v>
       </c>
       <c r="AX31">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AY31">
         <v>251</v>
@@ -18683,13 +18683,13 @@
         <v>252</v>
       </c>
       <c r="BC31">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BD31">
         <v>252</v>
       </c>
       <c r="BE31">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BF31">
         <v>251</v>
@@ -18704,7 +18704,7 @@
         <v>230</v>
       </c>
       <c r="BJ31">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BK31">
         <v>192</v>
@@ -18716,7 +18716,7 @@
         <v>168</v>
       </c>
       <c r="BN31">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BO31">
         <v>133</v>
@@ -18776,7 +18776,7 @@
         <v>109</v>
       </c>
       <c r="CH31">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CI31">
         <v>99</v>
@@ -18857,7 +18857,7 @@
         <v>126</v>
       </c>
       <c r="DI31">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DJ31">
         <v>125</v>
@@ -19037,13 +19037,13 @@
         <v>180</v>
       </c>
       <c r="FQ31">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FR31">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="FS31">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="FT31">
         <v>166</v>
@@ -19231,7 +19231,7 @@
         <v>50</v>
       </c>
       <c r="AJ32">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AK32">
         <v>50</v>
@@ -19240,13 +19240,13 @@
         <v>47</v>
       </c>
       <c r="AM32">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AN32">
         <v>56</v>
       </c>
       <c r="AO32">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AP32">
         <v>98</v>
@@ -19261,28 +19261,28 @@
         <v>205</v>
       </c>
       <c r="AT32">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AU32">
         <v>245</v>
       </c>
       <c r="AV32">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AW32">
         <v>249</v>
       </c>
       <c r="AX32">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AY32">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AZ32">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BA32">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BB32">
         <v>250</v>
@@ -19336,7 +19336,7 @@
         <v>101</v>
       </c>
       <c r="BS32">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BT32">
         <v>101</v>
@@ -19378,7 +19378,7 @@
         <v>119</v>
       </c>
       <c r="CG32">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CH32">
         <v>108</v>
@@ -19459,10 +19459,10 @@
         <v>128</v>
       </c>
       <c r="DH32">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="DI32">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DJ32">
         <v>106</v>
@@ -19627,7 +19627,7 @@
         <v>178</v>
       </c>
       <c r="FL32">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="FM32">
         <v>178</v>
@@ -19642,10 +19642,10 @@
         <v>181</v>
       </c>
       <c r="FQ32">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FR32">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="FS32">
         <v>177</v>
@@ -19842,10 +19842,10 @@
         <v>54</v>
       </c>
       <c r="AL33">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AM33">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN33">
         <v>44</v>
@@ -19866,16 +19866,16 @@
         <v>116</v>
       </c>
       <c r="AT33">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AU33">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AV33">
         <v>210</v>
       </c>
       <c r="AW33">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AX33">
         <v>241</v>
@@ -19884,7 +19884,7 @@
         <v>247</v>
       </c>
       <c r="AZ33">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BA33">
         <v>248</v>
@@ -19908,7 +19908,7 @@
         <v>218</v>
       </c>
       <c r="BH33">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BI33">
         <v>140</v>
@@ -19983,7 +19983,7 @@
         <v>119</v>
       </c>
       <c r="CG33">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CH33">
         <v>110</v>
@@ -20025,7 +20025,7 @@
         <v>109</v>
       </c>
       <c r="CU33">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="CV33">
         <v>103</v>
@@ -20034,7 +20034,7 @@
         <v>106</v>
       </c>
       <c r="CX33">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CY33">
         <v>106</v>
@@ -20049,7 +20049,7 @@
         <v>117</v>
       </c>
       <c r="DC33">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="DD33">
         <v>136</v>
@@ -20076,7 +20076,7 @@
         <v>76</v>
       </c>
       <c r="DL33">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="DM33">
         <v>93</v>
@@ -20232,7 +20232,7 @@
         <v>177</v>
       </c>
       <c r="FL33">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="FM33">
         <v>178</v>
@@ -20241,7 +20241,7 @@
         <v>181</v>
       </c>
       <c r="FO33">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="FP33">
         <v>181</v>
@@ -20429,7 +20429,7 @@
         <v>53</v>
       </c>
       <c r="AF34">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG34">
         <v>59</v>
@@ -20450,7 +20450,7 @@
         <v>54</v>
       </c>
       <c r="AM34">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AN34">
         <v>45</v>
@@ -20462,7 +20462,7 @@
         <v>45</v>
       </c>
       <c r="AQ34">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AR34">
         <v>48</v>
@@ -20489,7 +20489,7 @@
         <v>215</v>
       </c>
       <c r="AZ34">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="BA34">
         <v>240</v>
@@ -20513,13 +20513,13 @@
         <v>175</v>
       </c>
       <c r="BH34">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BI34">
         <v>99</v>
       </c>
       <c r="BJ34">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BK34">
         <v>78</v>
@@ -20633,7 +20633,7 @@
         <v>109</v>
       </c>
       <c r="CV34">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CW34">
         <v>105</v>
@@ -20654,7 +20654,7 @@
         <v>141</v>
       </c>
       <c r="DC34">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DD34">
         <v>148</v>
@@ -20693,7 +20693,7 @@
         <v>105</v>
       </c>
       <c r="DP34">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="DQ34">
         <v>168</v>
@@ -20819,7 +20819,7 @@
         <v>208</v>
       </c>
       <c r="FF34">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="FG34">
         <v>209</v>
@@ -20837,7 +20837,7 @@
         <v>177</v>
       </c>
       <c r="FL34">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="FM34">
         <v>178</v>
@@ -20846,10 +20846,10 @@
         <v>181</v>
       </c>
       <c r="FO34">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="FP34">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="FQ34">
         <v>181</v>
@@ -21013,7 +21013,7 @@
         <v>251</v>
       </c>
       <c r="Y35">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z35">
         <v>201</v>
@@ -21052,7 +21052,7 @@
         <v>58</v>
       </c>
       <c r="AL35">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM35">
         <v>52</v>
@@ -21079,7 +21079,7 @@
         <v>43</v>
       </c>
       <c r="AU35">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AV35">
         <v>58</v>
@@ -21118,13 +21118,13 @@
         <v>119</v>
       </c>
       <c r="BH35">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BI35">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BJ35">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BK35">
         <v>69</v>
@@ -21238,7 +21238,7 @@
         <v>116</v>
       </c>
       <c r="CV35">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="CW35">
         <v>111</v>
@@ -21259,7 +21259,7 @@
         <v>162</v>
       </c>
       <c r="DC35">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="DD35">
         <v>150</v>
@@ -21331,16 +21331,16 @@
         <v>243</v>
       </c>
       <c r="EA35">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="EB35">
         <v>253</v>
       </c>
       <c r="EC35">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="ED35">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="EE35">
         <v>214</v>
@@ -21367,10 +21367,10 @@
         <v>140</v>
       </c>
       <c r="EM35">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="EN35">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="EO35">
         <v>146</v>
@@ -21436,13 +21436,13 @@
         <v>191</v>
       </c>
       <c r="FJ35">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="FK35">
         <v>177</v>
       </c>
       <c r="FL35">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="FM35">
         <v>178</v>
@@ -21478,7 +21478,7 @@
         <v>128</v>
       </c>
       <c r="FX35">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="FY35">
         <v>126</v>
@@ -21624,7 +21624,7 @@
         <v>205</v>
       </c>
       <c r="AA36">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB36">
         <v>51</v>
@@ -21681,7 +21681,7 @@
         <v>48</v>
       </c>
       <c r="AT36">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU36">
         <v>46</v>
@@ -21717,7 +21717,7 @@
         <v>97</v>
       </c>
       <c r="BF36">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BG36">
         <v>78</v>
@@ -21798,13 +21798,13 @@
         <v>83</v>
       </c>
       <c r="CG36">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CH36">
         <v>96</v>
       </c>
       <c r="CI36">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="CJ36">
         <v>108</v>
@@ -21819,10 +21819,10 @@
         <v>119</v>
       </c>
       <c r="CN36">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CO36">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CP36">
         <v>150</v>
@@ -21852,7 +21852,7 @@
         <v>113</v>
       </c>
       <c r="CY36">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CZ36">
         <v>131</v>
@@ -21906,7 +21906,7 @@
         <v>88</v>
       </c>
       <c r="DQ36">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DR36">
         <v>121</v>
@@ -21933,7 +21933,7 @@
         <v>240</v>
       </c>
       <c r="DZ36">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="EA36">
         <v>248</v>
@@ -22083,7 +22083,7 @@
         <v>128</v>
       </c>
       <c r="FX36">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="FY36">
         <v>126</v>
@@ -22226,10 +22226,10 @@
         <v>251</v>
       </c>
       <c r="Z37">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA37">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AB37">
         <v>56</v>
@@ -22421,7 +22421,7 @@
         <v>115</v>
       </c>
       <c r="CM37">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CN37">
         <v>126</v>
@@ -22454,7 +22454,7 @@
         <v>124</v>
       </c>
       <c r="CX37">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CY37">
         <v>110</v>
@@ -22514,7 +22514,7 @@
         <v>108</v>
       </c>
       <c r="DR37">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="DS37">
         <v>121</v>
@@ -22532,7 +22532,7 @@
         <v>198</v>
       </c>
       <c r="DX37">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="DY37">
         <v>233</v>
@@ -22906,7 +22906,7 @@
         <v>42</v>
       </c>
       <c r="AY38">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AZ38">
         <v>48</v>
@@ -22915,7 +22915,7 @@
         <v>48</v>
       </c>
       <c r="BB38">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BC38">
         <v>46</v>
@@ -23071,10 +23071,10 @@
         <v>161</v>
       </c>
       <c r="DB38">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DC38">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="DD38">
         <v>158</v>
@@ -23092,7 +23092,7 @@
         <v>199</v>
       </c>
       <c r="DI38">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="DJ38">
         <v>215</v>
@@ -23122,7 +23122,7 @@
         <v>129</v>
       </c>
       <c r="DS38">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="DT38">
         <v>125</v>
@@ -23137,10 +23137,10 @@
         <v>160</v>
       </c>
       <c r="DX38">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="DY38">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="DZ38">
         <v>227</v>
@@ -23152,7 +23152,7 @@
         <v>250</v>
       </c>
       <c r="EC38">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="ED38">
         <v>252</v>
@@ -23293,7 +23293,7 @@
         <v>131</v>
       </c>
       <c r="FX38">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="FY38">
         <v>129</v>
@@ -23442,7 +23442,7 @@
         <v>149</v>
       </c>
       <c r="AB39">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC39">
         <v>55</v>
@@ -23475,7 +23475,7 @@
         <v>76</v>
       </c>
       <c r="AM39">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN39">
         <v>75</v>
@@ -23529,7 +23529,7 @@
         <v>51</v>
       </c>
       <c r="BE39">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BF39">
         <v>50</v>
@@ -23667,7 +23667,7 @@
         <v>125</v>
       </c>
       <c r="CY39">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CZ39">
         <v>141</v>
@@ -23676,22 +23676,22 @@
         <v>162</v>
       </c>
       <c r="DB39">
+        <v>181</v>
+      </c>
+      <c r="DC39">
         <v>182</v>
-      </c>
-      <c r="DC39">
-        <v>183</v>
       </c>
       <c r="DD39">
         <v>169</v>
       </c>
       <c r="DE39">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DF39">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="DG39">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DH39">
         <v>207</v>
@@ -23730,7 +23730,7 @@
         <v>150</v>
       </c>
       <c r="DT39">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DU39">
         <v>134</v>
@@ -23739,7 +23739,7 @@
         <v>126</v>
       </c>
       <c r="DW39">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="DX39">
         <v>150</v>
@@ -23754,7 +23754,7 @@
         <v>235</v>
       </c>
       <c r="EB39">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="EC39">
         <v>250</v>
@@ -23844,7 +23844,7 @@
         <v>197</v>
       </c>
       <c r="FF39">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="FG39">
         <v>199</v>
@@ -24080,7 +24080,7 @@
         <v>74</v>
       </c>
       <c r="AM40">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN40">
         <v>86</v>
@@ -24179,10 +24179,10 @@
         <v>84</v>
       </c>
       <c r="BT40">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BU40">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BV40">
         <v>86</v>
@@ -24269,7 +24269,7 @@
         <v>146</v>
       </c>
       <c r="CX40">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CY40">
         <v>139</v>
@@ -24287,7 +24287,7 @@
         <v>189</v>
       </c>
       <c r="DD40">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DE40">
         <v>161</v>
@@ -24332,7 +24332,7 @@
         <v>154</v>
       </c>
       <c r="DS40">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DT40">
         <v>162</v>
@@ -24536,7 +24536,7 @@
         <v>129</v>
       </c>
       <c r="GI40">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="GJ40">
         <v>126</v>
@@ -24907,7 +24907,7 @@
         <v>207</v>
       </c>
       <c r="DI41">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="DJ41">
         <v>153</v>
@@ -24925,7 +24925,7 @@
         <v>123</v>
       </c>
       <c r="DO41">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DP41">
         <v>175</v>
@@ -24961,7 +24961,7 @@
         <v>154</v>
       </c>
       <c r="EA41">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="EB41">
         <v>232</v>
@@ -25135,13 +25135,13 @@
         <v>126</v>
       </c>
       <c r="GG41">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="GH41">
         <v>125</v>
       </c>
       <c r="GI41">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="GJ41">
         <v>120</v>
@@ -25509,7 +25509,7 @@
         <v>176</v>
       </c>
       <c r="DH42">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="DI42">
         <v>204</v>
@@ -25524,10 +25524,10 @@
         <v>61</v>
       </c>
       <c r="DM42">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="DN42">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="DO42">
         <v>139</v>
@@ -25548,7 +25548,7 @@
         <v>163</v>
       </c>
       <c r="DU42">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="DV42">
         <v>143</v>
@@ -25889,16 +25889,16 @@
         <v>87</v>
       </c>
       <c r="AK43">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL43">
         <v>95</v>
       </c>
       <c r="AM43">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AN43">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AO43">
         <v>131</v>
@@ -25970,7 +25970,7 @@
         <v>82</v>
       </c>
       <c r="BL43">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BM43">
         <v>80</v>
@@ -26075,10 +26075,10 @@
         <v>167</v>
       </c>
       <c r="CU43">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="CV43">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="CW43">
         <v>139</v>
@@ -26102,7 +26102,7 @@
         <v>195</v>
       </c>
       <c r="DD43">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="DE43">
         <v>191</v>
@@ -26132,7 +26132,7 @@
         <v>73</v>
       </c>
       <c r="DN43">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="DO43">
         <v>146</v>
@@ -26144,10 +26144,10 @@
         <v>164</v>
       </c>
       <c r="DR43">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="DS43">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="DT43">
         <v>166</v>
@@ -26243,7 +26243,7 @@
         <v>139</v>
       </c>
       <c r="EY43">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="EZ43">
         <v>144</v>
@@ -26467,7 +26467,7 @@
         <v>237</v>
       </c>
       <c r="AB44">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AC44">
         <v>103</v>
@@ -26485,7 +26485,7 @@
         <v>82</v>
       </c>
       <c r="AH44">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI44">
         <v>88</v>
@@ -26503,7 +26503,7 @@
         <v>116</v>
       </c>
       <c r="AN44">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AO44">
         <v>120</v>
@@ -26548,7 +26548,7 @@
         <v>50</v>
       </c>
       <c r="BC44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BD44">
         <v>38</v>
@@ -26578,10 +26578,10 @@
         <v>93</v>
       </c>
       <c r="BM44">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BN44">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BO44">
         <v>94</v>
@@ -26632,13 +26632,13 @@
         <v>83</v>
       </c>
       <c r="CE44">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="CF44">
         <v>71</v>
       </c>
       <c r="CG44">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="CH44">
         <v>59</v>
@@ -26683,7 +26683,7 @@
         <v>166</v>
       </c>
       <c r="CV44">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="CW44">
         <v>151</v>
@@ -26731,7 +26731,7 @@
         <v>179</v>
       </c>
       <c r="DL44">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="DM44">
         <v>131</v>
@@ -26749,7 +26749,7 @@
         <v>172</v>
       </c>
       <c r="DR44">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="DS44">
         <v>165</v>
@@ -26950,7 +26950,7 @@
         <v>115</v>
       </c>
       <c r="GG44">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="GH44">
         <v>112</v>
@@ -27090,7 +27090,7 @@
         <v>79</v>
       </c>
       <c r="AH45">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AI45">
         <v>82</v>
@@ -27237,7 +27237,7 @@
         <v>166</v>
       </c>
       <c r="CE45">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="CF45">
         <v>142</v>
@@ -27336,7 +27336,7 @@
         <v>180</v>
       </c>
       <c r="DL45">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="DM45">
         <v>182</v>
@@ -27378,7 +27378,7 @@
         <v>92</v>
       </c>
       <c r="DZ45">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="EA45">
         <v>111</v>
@@ -27399,7 +27399,7 @@
         <v>109</v>
       </c>
       <c r="EG45">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="EH45">
         <v>18</v>
@@ -27441,10 +27441,10 @@
         <v>151</v>
       </c>
       <c r="EU45">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="EV45">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="EW45">
         <v>137</v>
@@ -27833,7 +27833,7 @@
         <v>161</v>
       </c>
       <c r="CB46">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="CC46">
         <v>208</v>
@@ -27929,7 +27929,7 @@
         <v>111</v>
       </c>
       <c r="DH46">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DI46">
         <v>98</v>
@@ -27944,7 +27944,7 @@
         <v>178</v>
       </c>
       <c r="DM46">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="DN46">
         <v>193</v>
@@ -27965,7 +27965,7 @@
         <v>146</v>
       </c>
       <c r="DT46">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="DU46">
         <v>102</v>
@@ -27995,7 +27995,7 @@
         <v>149</v>
       </c>
       <c r="ED46">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="EE46">
         <v>188</v>
@@ -28007,7 +28007,7 @@
         <v>31</v>
       </c>
       <c r="EH46">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="EI46">
         <v>32</v>
@@ -28058,7 +28058,7 @@
         <v>138</v>
       </c>
       <c r="EY46">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="EZ46">
         <v>146</v>
@@ -28145,7 +28145,7 @@
         <v>116</v>
       </c>
       <c r="GB46">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="GC46">
         <v>115</v>
@@ -28423,7 +28423,7 @@
         <v>96</v>
       </c>
       <c r="BW47">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BX47">
         <v>131</v>
@@ -28438,7 +28438,7 @@
         <v>202</v>
       </c>
       <c r="CB47">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="CC47">
         <v>212</v>
@@ -28453,7 +28453,7 @@
         <v>194</v>
       </c>
       <c r="CG47">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CH47">
         <v>182</v>
@@ -28471,7 +28471,7 @@
         <v>74</v>
       </c>
       <c r="CM47">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CN47">
         <v>144</v>
@@ -28519,10 +28519,10 @@
         <v>117</v>
       </c>
       <c r="DC47">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="DD47">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="DE47">
         <v>83</v>
@@ -28531,7 +28531,7 @@
         <v>80</v>
       </c>
       <c r="DG47">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="DH47">
         <v>71</v>
@@ -28570,7 +28570,7 @@
         <v>147</v>
       </c>
       <c r="DT47">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="DU47">
         <v>102</v>
@@ -28654,7 +28654,7 @@
         <v>140</v>
       </c>
       <c r="EV47">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EW47">
         <v>134</v>
@@ -28723,7 +28723,7 @@
         <v>133</v>
       </c>
       <c r="FS47">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="FT47">
         <v>124</v>
@@ -28738,7 +28738,7 @@
         <v>120</v>
       </c>
       <c r="FX47">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="FY47">
         <v>118</v>
@@ -28750,7 +28750,7 @@
         <v>115</v>
       </c>
       <c r="GB47">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="GC47">
         <v>115</v>
@@ -29040,7 +29040,7 @@
         <v>204</v>
       </c>
       <c r="CA48">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="CB48">
         <v>219</v>
@@ -29124,7 +29124,7 @@
         <v>76</v>
       </c>
       <c r="DC48">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="DD48">
         <v>67</v>
@@ -29211,7 +29211,7 @@
         <v>158</v>
       </c>
       <c r="EF48">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="EG48">
         <v>41</v>
@@ -29597,7 +29597,7 @@
         <v>86</v>
       </c>
       <c r="BK49">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BL49">
         <v>80</v>
@@ -29654,7 +29654,7 @@
         <v>192</v>
       </c>
       <c r="CD49">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="CE49">
         <v>86</v>
@@ -29666,7 +29666,7 @@
         <v>127</v>
       </c>
       <c r="CH49">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="CI49">
         <v>176</v>
@@ -29750,7 +29750,7 @@
         <v>40</v>
       </c>
       <c r="DJ49">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="DK49">
         <v>80</v>
@@ -29804,7 +29804,7 @@
         <v>95</v>
       </c>
       <c r="EB49">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="EC49">
         <v>125</v>
@@ -30103,13 +30103,13 @@
         <v>249</v>
       </c>
       <c r="AD50">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AE50">
         <v>223</v>
       </c>
       <c r="AF50">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG50">
         <v>107</v>
@@ -30124,7 +30124,7 @@
         <v>76</v>
       </c>
       <c r="AK50">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL50">
         <v>81</v>
@@ -30223,7 +30223,7 @@
         <v>78</v>
       </c>
       <c r="BR50">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BS50">
         <v>96</v>
@@ -30286,7 +30286,7 @@
         <v>100</v>
       </c>
       <c r="CM50">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="CN50">
         <v>136</v>
@@ -30331,7 +30331,7 @@
         <v>38</v>
       </c>
       <c r="DB50">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="DC50">
         <v>21</v>
@@ -30343,16 +30343,16 @@
         <v>19</v>
       </c>
       <c r="DF50">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="DG50">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="DH50">
         <v>49</v>
       </c>
       <c r="DI50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="DJ50">
         <v>61</v>
@@ -30382,7 +30382,7 @@
         <v>177</v>
       </c>
       <c r="DS50">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DT50">
         <v>166</v>
@@ -30412,7 +30412,7 @@
         <v>109</v>
       </c>
       <c r="EC50">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="ED50">
         <v>142</v>
@@ -30711,16 +30711,16 @@
         <v>249</v>
       </c>
       <c r="AE51">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF51">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG51">
         <v>166</v>
       </c>
       <c r="AH51">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AI51">
         <v>77</v>
@@ -30729,7 +30729,7 @@
         <v>77</v>
       </c>
       <c r="AK51">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL51">
         <v>85</v>
@@ -30807,7 +30807,7 @@
         <v>74</v>
       </c>
       <c r="BK51">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BL51">
         <v>71</v>
@@ -30840,10 +30840,10 @@
         <v>162</v>
       </c>
       <c r="BV51">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BW51">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BX51">
         <v>151</v>
@@ -30867,7 +30867,7 @@
         <v>136</v>
       </c>
       <c r="CE51">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CF51">
         <v>46</v>
@@ -30897,7 +30897,7 @@
         <v>128</v>
       </c>
       <c r="CO51">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="CP51">
         <v>109</v>
@@ -30948,10 +30948,10 @@
         <v>34</v>
       </c>
       <c r="DF51">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="DG51">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="DH51">
         <v>49</v>
@@ -31014,10 +31014,10 @@
         <v>102</v>
       </c>
       <c r="EB51">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="EC51">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="ED51">
         <v>152</v>
@@ -31322,13 +31322,13 @@
         <v>242</v>
       </c>
       <c r="AG52">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH52">
         <v>165</v>
       </c>
       <c r="AI52">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ52">
         <v>81</v>
@@ -31340,7 +31340,7 @@
         <v>83</v>
       </c>
       <c r="AM52">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AN52">
         <v>83</v>
@@ -31415,7 +31415,7 @@
         <v>65</v>
       </c>
       <c r="BL52">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BM52">
         <v>76</v>
@@ -31454,7 +31454,7 @@
         <v>139</v>
       </c>
       <c r="BY52">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BZ52">
         <v>194</v>
@@ -31469,7 +31469,7 @@
         <v>191</v>
       </c>
       <c r="CD52">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CE52">
         <v>100</v>
@@ -31481,7 +31481,7 @@
         <v>89</v>
       </c>
       <c r="CH52">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="CI52">
         <v>171</v>
@@ -31490,13 +31490,13 @@
         <v>176</v>
       </c>
       <c r="CK52">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="CL52">
         <v>149</v>
       </c>
       <c r="CM52">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="CN52">
         <v>120</v>
@@ -31622,7 +31622,7 @@
         <v>122</v>
       </c>
       <c r="EC52">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="ED52">
         <v>159</v>
@@ -32029,7 +32029,7 @@
         <v>99</v>
       </c>
       <c r="BO53">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BP53">
         <v>110</v>
@@ -32074,7 +32074,7 @@
         <v>190</v>
       </c>
       <c r="CD53">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CE53">
         <v>142</v>
@@ -32095,13 +32095,13 @@
         <v>168</v>
       </c>
       <c r="CK53">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="CL53">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="CM53">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="CN53">
         <v>127</v>
@@ -32158,19 +32158,19 @@
         <v>122</v>
       </c>
       <c r="DF53">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="DG53">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="DH53">
         <v>68</v>
       </c>
       <c r="DI53">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="DJ53">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="DK53">
         <v>121</v>
@@ -32206,7 +32206,7 @@
         <v>114</v>
       </c>
       <c r="DV53">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="DW53">
         <v>144</v>
@@ -32230,7 +32230,7 @@
         <v>140</v>
       </c>
       <c r="ED53">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="EE53">
         <v>159</v>
@@ -32239,7 +32239,7 @@
         <v>141</v>
       </c>
       <c r="EG53">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="EH53">
         <v>78</v>
@@ -32589,7 +32589,7 @@
         <v>48</v>
       </c>
       <c r="AZ54">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BA54">
         <v>61</v>
@@ -32610,7 +32610,7 @@
         <v>81</v>
       </c>
       <c r="BG54">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BH54">
         <v>80</v>
@@ -32667,7 +32667,7 @@
         <v>153</v>
       </c>
       <c r="BZ54">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CA54">
         <v>166</v>
@@ -32679,7 +32679,7 @@
         <v>184</v>
       </c>
       <c r="CD54">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="CE54">
         <v>162</v>
@@ -32838,7 +32838,7 @@
         <v>148</v>
       </c>
       <c r="EE54">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="EF54">
         <v>151</v>
@@ -33197,7 +33197,7 @@
         <v>66</v>
       </c>
       <c r="BA55">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BB55">
         <v>92</v>
@@ -33230,7 +33230,7 @@
         <v>100</v>
       </c>
       <c r="BL55">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BM55">
         <v>109</v>
@@ -33239,7 +33239,7 @@
         <v>111</v>
       </c>
       <c r="BO55">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP55">
         <v>133</v>
@@ -33748,7 +33748,7 @@
         <v>243</v>
       </c>
       <c r="AI56">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ56">
         <v>201</v>
@@ -33760,10 +33760,10 @@
         <v>86</v>
       </c>
       <c r="AM56">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AN56">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AO56">
         <v>85</v>
@@ -33817,7 +33817,7 @@
         <v>119</v>
       </c>
       <c r="BF56">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BG56">
         <v>114</v>
@@ -33853,10 +33853,10 @@
         <v>113</v>
       </c>
       <c r="BR56">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BS56">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BT56">
         <v>107</v>
@@ -33865,7 +33865,7 @@
         <v>115</v>
       </c>
       <c r="BV56">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BW56">
         <v>134</v>
@@ -33874,7 +33874,7 @@
         <v>141</v>
       </c>
       <c r="BY56">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BZ56">
         <v>136</v>
@@ -33892,10 +33892,10 @@
         <v>120</v>
       </c>
       <c r="CE56">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="CF56">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="CG56">
         <v>120</v>
@@ -33991,10 +33991,10 @@
         <v>69</v>
       </c>
       <c r="DL56">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DM56">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DN56">
         <v>119</v>
@@ -34350,7 +34350,7 @@
         <v>249</v>
       </c>
       <c r="AH57">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AI57">
         <v>245</v>
@@ -34359,7 +34359,7 @@
         <v>233</v>
       </c>
       <c r="AK57">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AL57">
         <v>144</v>
@@ -34371,7 +34371,7 @@
         <v>82</v>
       </c>
       <c r="AO57">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AP57">
         <v>84</v>
@@ -34452,10 +34452,10 @@
         <v>110</v>
       </c>
       <c r="BP57">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BQ57">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BR57">
         <v>104</v>
@@ -34476,7 +34476,7 @@
         <v>115</v>
       </c>
       <c r="BX57">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BY57">
         <v>118</v>
@@ -34593,10 +34593,10 @@
         <v>43</v>
       </c>
       <c r="DK57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="DL57">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="DM57">
         <v>92</v>
@@ -34668,16 +34668,16 @@
         <v>90</v>
       </c>
       <c r="EJ57">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="EK57">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="EL57">
         <v>134</v>
       </c>
       <c r="EM57">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EN57">
         <v>127</v>
@@ -34982,7 +34982,7 @@
         <v>68</v>
       </c>
       <c r="AQ58">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AR58">
         <v>93</v>
@@ -35087,7 +35087,7 @@
         <v>95</v>
       </c>
       <c r="BZ58">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CA58">
         <v>89</v>
@@ -35204,13 +35204,13 @@
         <v>57</v>
       </c>
       <c r="DM58">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="DN58">
         <v>85</v>
       </c>
       <c r="DO58">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="DP58">
         <v>100</v>
@@ -35560,7 +35560,7 @@
         <v>252</v>
       </c>
       <c r="AH59">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AI59">
         <v>249</v>
@@ -35584,7 +35584,7 @@
         <v>97</v>
       </c>
       <c r="AP59">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AQ59">
         <v>75</v>
@@ -35785,7 +35785,7 @@
         <v>95</v>
       </c>
       <c r="DE59">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="DF59">
         <v>90</v>
@@ -35875,22 +35875,22 @@
         <v>152</v>
       </c>
       <c r="EI59">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="EJ59">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="EK59">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="EL59">
         <v>139</v>
       </c>
       <c r="EM59">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="EN59">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="EO59">
         <v>135</v>
@@ -35944,7 +35944,7 @@
         <v>182</v>
       </c>
       <c r="FF59">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="FG59">
         <v>179</v>
@@ -36052,7 +36052,7 @@
         <v>77</v>
       </c>
       <c r="GP59">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="GQ59">
         <v>66</v>
@@ -36345,13 +36345,13 @@
         <v>108</v>
       </c>
       <c r="CP60">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CQ60">
         <v>69</v>
       </c>
       <c r="CR60">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CS60">
         <v>65</v>
@@ -36483,19 +36483,19 @@
         <v>136</v>
       </c>
       <c r="EJ60">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="EK60">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EL60">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="EM60">
         <v>140</v>
       </c>
       <c r="EN60">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="EO60">
         <v>133</v>
@@ -36504,7 +36504,7 @@
         <v>137</v>
       </c>
       <c r="EQ60">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="ER60">
         <v>143</v>
@@ -36519,10 +36519,10 @@
         <v>124</v>
       </c>
       <c r="EV60">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EW60">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EX60">
         <v>120</v>
@@ -36657,7 +36657,7 @@
         <v>76</v>
       </c>
       <c r="GP60">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="GQ60">
         <v>67</v>
@@ -37058,7 +37058,7 @@
         <v>69</v>
       </c>
       <c r="DZ61">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="EA61">
         <v>105</v>
@@ -37094,13 +37094,13 @@
         <v>125</v>
       </c>
       <c r="EL61">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="EM61">
         <v>139</v>
       </c>
       <c r="EN61">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="EO61">
         <v>129</v>
@@ -37124,7 +37124,7 @@
         <v>125</v>
       </c>
       <c r="EV61">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="EW61">
         <v>118</v>
@@ -37271,7 +37271,7 @@
         <v>65</v>
       </c>
       <c r="GS61">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:201">
@@ -37387,13 +37387,13 @@
         <v>251</v>
       </c>
       <c r="AL62">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM62">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN62">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO62">
         <v>192</v>
@@ -37558,7 +37558,7 @@
         <v>75</v>
       </c>
       <c r="CQ62">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="CR62">
         <v>65</v>
@@ -37675,7 +37675,7 @@
         <v>119</v>
       </c>
       <c r="ED62">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="EE62">
         <v>130</v>
@@ -38082,7 +38082,7 @@
         <v>88</v>
       </c>
       <c r="BP63">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BQ63">
         <v>64</v>
@@ -38091,7 +38091,7 @@
         <v>59</v>
       </c>
       <c r="BS63">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BT63">
         <v>60</v>
@@ -38163,10 +38163,10 @@
         <v>90</v>
       </c>
       <c r="CQ63">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="CR63">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CS63">
         <v>84</v>
@@ -38226,13 +38226,13 @@
         <v>97</v>
       </c>
       <c r="DL63">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="DM63">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DN63">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="DO63">
         <v>78</v>
@@ -38397,7 +38397,7 @@
         <v>99</v>
       </c>
       <c r="FQ63">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="FR63">
         <v>102</v>
@@ -38448,7 +38448,7 @@
         <v>83</v>
       </c>
       <c r="GH63">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="GI63">
         <v>85</v>
@@ -38696,7 +38696,7 @@
         <v>69</v>
       </c>
       <c r="BS64">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BT64">
         <v>62</v>
@@ -38768,7 +38768,7 @@
         <v>86</v>
       </c>
       <c r="CQ64">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CR64">
         <v>66</v>
@@ -38834,13 +38834,13 @@
         <v>100</v>
       </c>
       <c r="DM64">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="DN64">
         <v>105</v>
       </c>
       <c r="DO64">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="DP64">
         <v>90</v>
@@ -38966,7 +38966,7 @@
         <v>178</v>
       </c>
       <c r="FE64">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="FF64">
         <v>178</v>
@@ -39053,7 +39053,7 @@
         <v>83</v>
       </c>
       <c r="GH64">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="GI64">
         <v>84</v>
@@ -39208,7 +39208,7 @@
         <v>248</v>
       </c>
       <c r="AN65">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO65">
         <v>215</v>
@@ -39502,10 +39502,10 @@
         <v>132</v>
       </c>
       <c r="EH65">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="EI65">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="EJ65">
         <v>153</v>
@@ -39571,7 +39571,7 @@
         <v>178</v>
       </c>
       <c r="FE65">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="FF65">
         <v>177</v>
@@ -39661,7 +39661,7 @@
         <v>86</v>
       </c>
       <c r="GI65">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="GJ65">
         <v>85</v>
@@ -39813,13 +39813,13 @@
         <v>248</v>
       </c>
       <c r="AN66">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO66">
         <v>214</v>
       </c>
       <c r="AP66">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AQ66">
         <v>141</v>
@@ -39864,7 +39864,7 @@
         <v>109</v>
       </c>
       <c r="BE66">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BF66">
         <v>98</v>
@@ -39975,10 +39975,10 @@
         <v>90</v>
       </c>
       <c r="CP66">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CQ66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="CR66">
         <v>58</v>
@@ -40194,7 +40194,7 @@
         <v>125</v>
       </c>
       <c r="FK66">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="FL66">
         <v>99</v>
@@ -40293,10 +40293,10 @@
         <v>73</v>
       </c>
       <c r="GR66">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="GS66">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:201">
@@ -40424,7 +40424,7 @@
         <v>214</v>
       </c>
       <c r="AP67">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AQ67">
         <v>136</v>
@@ -40622,10 +40622,10 @@
         <v>36</v>
       </c>
       <c r="DD67">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="DE67">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="DF67">
         <v>74</v>
@@ -40700,7 +40700,7 @@
         <v>116</v>
       </c>
       <c r="ED67">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="EE67">
         <v>135</v>
@@ -40805,7 +40805,7 @@
         <v>92</v>
       </c>
       <c r="FM67">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="FN67">
         <v>85</v>
@@ -40898,7 +40898,7 @@
         <v>71</v>
       </c>
       <c r="GR67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="GS67">
         <v>62</v>
@@ -41104,7 +41104,7 @@
         <v>120</v>
       </c>
       <c r="BO68">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BP68">
         <v>115</v>
@@ -41188,7 +41188,7 @@
         <v>66</v>
       </c>
       <c r="CQ68">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CR68">
         <v>71</v>
@@ -41413,10 +41413,10 @@
         <v>82</v>
       </c>
       <c r="FN68">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="FO68">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="FP68">
         <v>89</v>
@@ -41652,7 +41652,7 @@
         <v>111</v>
       </c>
       <c r="AV69">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AW69">
         <v>99</v>
@@ -41694,7 +41694,7 @@
         <v>94</v>
       </c>
       <c r="BJ69">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BK69">
         <v>114</v>
@@ -41709,7 +41709,7 @@
         <v>122</v>
       </c>
       <c r="BO69">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BP69">
         <v>115</v>
@@ -41790,7 +41790,7 @@
         <v>70</v>
       </c>
       <c r="CP69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="CQ69">
         <v>63</v>
@@ -41832,13 +41832,13 @@
         <v>46</v>
       </c>
       <c r="DD69">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="DE69">
         <v>70</v>
       </c>
       <c r="DF69">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="DG69">
         <v>60</v>
@@ -41871,7 +41871,7 @@
         <v>82</v>
       </c>
       <c r="DQ69">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="DR69">
         <v>75</v>
@@ -41901,7 +41901,7 @@
         <v>91</v>
       </c>
       <c r="EA69">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="EB69">
         <v>122</v>
@@ -42015,7 +42015,7 @@
         <v>85</v>
       </c>
       <c r="FM69">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="FN69">
         <v>81</v>
@@ -42054,10 +42054,10 @@
         <v>90</v>
       </c>
       <c r="FZ69">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="GA69">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="GB69">
         <v>80</v>
@@ -42108,7 +42108,7 @@
         <v>67</v>
       </c>
       <c r="GR69">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="GS69">
         <v>65</v>
@@ -42236,13 +42236,13 @@
         <v>240</v>
       </c>
       <c r="AO70">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AP70">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ70">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AR70">
         <v>134</v>
@@ -42257,7 +42257,7 @@
         <v>111</v>
       </c>
       <c r="AV70">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AW70">
         <v>95</v>
@@ -42296,7 +42296,7 @@
         <v>91</v>
       </c>
       <c r="BI70">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BJ70">
         <v>102</v>
@@ -42485,7 +42485,7 @@
         <v>60</v>
       </c>
       <c r="DT70">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="DU70">
         <v>46</v>
@@ -42617,7 +42617,7 @@
         <v>90</v>
       </c>
       <c r="FL70">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="FM70">
         <v>82</v>
@@ -42659,7 +42659,7 @@
         <v>82</v>
       </c>
       <c r="FZ70">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="GA70">
         <v>75</v>
@@ -42889,7 +42889,7 @@
         <v>84</v>
       </c>
       <c r="BE71">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BF71">
         <v>105</v>
@@ -43102,10 +43102,10 @@
         <v>59</v>
       </c>
       <c r="DX71">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="DY71">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="DZ71">
         <v>94</v>
@@ -43141,10 +43141,10 @@
         <v>159</v>
       </c>
       <c r="EK71">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EL71">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="EM71">
         <v>141</v>
@@ -43264,7 +43264,7 @@
         <v>76</v>
       </c>
       <c r="FZ71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="GA71">
         <v>70</v>
@@ -43452,10 +43452,10 @@
         <v>204</v>
       </c>
       <c r="AQ72">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AR72">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AS72">
         <v>118</v>
@@ -43662,13 +43662,13 @@
         <v>51</v>
       </c>
       <c r="DI72">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="DJ72">
         <v>61</v>
       </c>
       <c r="DK72">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="DL72">
         <v>63</v>
@@ -43695,7 +43695,7 @@
         <v>49</v>
       </c>
       <c r="DT72">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="DU72">
         <v>54</v>
@@ -43731,7 +43731,7 @@
         <v>149</v>
       </c>
       <c r="EF72">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="EG72">
         <v>165</v>
@@ -43836,7 +43836,7 @@
         <v>75</v>
       </c>
       <c r="FO72">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="FP72">
         <v>79</v>
@@ -43869,7 +43869,7 @@
         <v>71</v>
       </c>
       <c r="FZ72">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="GA72">
         <v>66</v>
@@ -44054,10 +44054,10 @@
         <v>236</v>
       </c>
       <c r="AP73">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AQ73">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AR73">
         <v>142</v>
@@ -44066,13 +44066,13 @@
         <v>116</v>
       </c>
       <c r="AT73">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AU73">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AV73">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW73">
         <v>82</v>
@@ -44303,7 +44303,7 @@
         <v>57</v>
       </c>
       <c r="DU73">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="DV73">
         <v>67</v>
@@ -44330,7 +44330,7 @@
         <v>126</v>
       </c>
       <c r="ED73">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="EE73">
         <v>141</v>
@@ -44351,7 +44351,7 @@
         <v>142</v>
       </c>
       <c r="EK73">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="EL73">
         <v>144</v>
@@ -44366,7 +44366,7 @@
         <v>120</v>
       </c>
       <c r="EP73">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="EQ73">
         <v>130</v>
@@ -44438,7 +44438,7 @@
         <v>72</v>
       </c>
       <c r="FN73">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="FO73">
         <v>75</v>
@@ -44674,7 +44674,7 @@
         <v>106</v>
       </c>
       <c r="AU74">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AV74">
         <v>86</v>
@@ -44794,7 +44794,7 @@
         <v>57</v>
       </c>
       <c r="CI74">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CJ74">
         <v>56</v>
@@ -44971,7 +44971,7 @@
         <v>118</v>
       </c>
       <c r="EP74">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="EQ74">
         <v>128</v>
@@ -45046,7 +45046,7 @@
         <v>70</v>
       </c>
       <c r="FO74">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="FP74">
         <v>77</v>
@@ -45279,13 +45279,13 @@
         <v>115</v>
       </c>
       <c r="AU75">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AV75">
         <v>87</v>
       </c>
       <c r="AW75">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AX75">
         <v>87</v>
@@ -45315,7 +45315,7 @@
         <v>102</v>
       </c>
       <c r="BG75">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BH75">
         <v>118</v>
@@ -45396,16 +45396,16 @@
         <v>38</v>
       </c>
       <c r="CH75">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CI75">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CJ75">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CK75">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CL75">
         <v>43</v>
@@ -45576,7 +45576,7 @@
         <v>116</v>
       </c>
       <c r="EP75">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="EQ75">
         <v>124</v>
@@ -45636,7 +45636,7 @@
         <v>89</v>
       </c>
       <c r="FJ75">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="FK75">
         <v>71</v>
@@ -45890,7 +45890,7 @@
         <v>91</v>
       </c>
       <c r="AW76">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AX76">
         <v>93</v>
@@ -45914,7 +45914,7 @@
         <v>92</v>
       </c>
       <c r="BE76">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BF76">
         <v>107</v>
@@ -46001,7 +46001,7 @@
         <v>34</v>
       </c>
       <c r="CH76">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CI76">
         <v>40</v>
@@ -46199,7 +46199,7 @@
         <v>108</v>
       </c>
       <c r="EV76">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="EW76">
         <v>107</v>
@@ -46301,7 +46301,7 @@
         <v>58</v>
       </c>
       <c r="GD76">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="GE76">
         <v>65</v>
@@ -46522,7 +46522,7 @@
         <v>98</v>
       </c>
       <c r="BF77">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BG77">
         <v>103</v>
@@ -46687,7 +46687,7 @@
         <v>43</v>
       </c>
       <c r="DI77">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="DJ77">
         <v>34</v>
@@ -46705,7 +46705,7 @@
         <v>34</v>
       </c>
       <c r="DO77">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="DP77">
         <v>40</v>
@@ -46792,7 +46792,7 @@
         <v>122</v>
       </c>
       <c r="ER77">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="ES77">
         <v>119</v>
@@ -46951,7 +46951,7 @@
         <v>70</v>
       </c>
       <c r="GS77">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:201">
@@ -47094,7 +47094,7 @@
         <v>150</v>
       </c>
       <c r="AU78">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AV78">
         <v>99</v>
@@ -47283,7 +47283,7 @@
         <v>36</v>
       </c>
       <c r="DF78">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="DG78">
         <v>35</v>
@@ -47331,7 +47331,7 @@
         <v>70</v>
       </c>
       <c r="DV78">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="DW78">
         <v>87</v>
@@ -47394,16 +47394,16 @@
         <v>127</v>
       </c>
       <c r="EQ78">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="ER78">
         <v>120</v>
       </c>
       <c r="ES78">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="ET78">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="EU78">
         <v>102</v>
@@ -47445,7 +47445,7 @@
         <v>122</v>
       </c>
       <c r="FH78">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="FI78">
         <v>81</v>
@@ -47702,7 +47702,7 @@
         <v>115</v>
       </c>
       <c r="AV79">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AW79">
         <v>101</v>
@@ -47726,7 +47726,7 @@
         <v>87</v>
       </c>
       <c r="BD79">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BE79">
         <v>91</v>
@@ -47735,7 +47735,7 @@
         <v>91</v>
       </c>
       <c r="BG79">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BH79">
         <v>93</v>
@@ -47903,7 +47903,7 @@
         <v>39</v>
       </c>
       <c r="DK79">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DL79">
         <v>51</v>
@@ -47915,7 +47915,7 @@
         <v>46</v>
       </c>
       <c r="DO79">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="DP79">
         <v>48</v>
@@ -47942,7 +47942,7 @@
         <v>85</v>
       </c>
       <c r="DX79">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="DY79">
         <v>84</v>
@@ -48002,7 +48002,7 @@
         <v>131</v>
       </c>
       <c r="ER79">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="ES79">
         <v>126</v>
@@ -48098,7 +48098,7 @@
         <v>73</v>
       </c>
       <c r="FX79">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="FY79">
         <v>69</v>
@@ -48334,10 +48334,10 @@
         <v>87</v>
       </c>
       <c r="BE80">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BF80">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BG80">
         <v>95</v>
@@ -48346,7 +48346,7 @@
         <v>97</v>
       </c>
       <c r="BI80">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BJ80">
         <v>97</v>
@@ -48520,7 +48520,7 @@
         <v>51</v>
       </c>
       <c r="DO80">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="DP80">
         <v>44</v>
@@ -48580,7 +48580,7 @@
         <v>78</v>
       </c>
       <c r="EI80">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="EJ80">
         <v>90</v>
@@ -48589,7 +48589,7 @@
         <v>98</v>
       </c>
       <c r="EL80">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="EM80">
         <v>115</v>
@@ -48613,7 +48613,7 @@
         <v>142</v>
       </c>
       <c r="ET80">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="EU80">
         <v>108</v>
@@ -48625,7 +48625,7 @@
         <v>101</v>
       </c>
       <c r="EX80">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="EY80">
         <v>103</v>
@@ -48700,7 +48700,7 @@
         <v>80</v>
       </c>
       <c r="FW80">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="FX80">
         <v>74</v>
@@ -48897,7 +48897,7 @@
         <v>234</v>
       </c>
       <c r="AQ81">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AR81">
         <v>218</v>
@@ -48954,7 +48954,7 @@
         <v>110</v>
       </c>
       <c r="BJ81">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BK81">
         <v>106</v>
@@ -48975,16 +48975,16 @@
         <v>90</v>
       </c>
       <c r="BQ81">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BR81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BS81">
         <v>78</v>
       </c>
       <c r="BT81">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BU81">
         <v>68</v>
@@ -49053,7 +49053,7 @@
         <v>60</v>
       </c>
       <c r="CQ81">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CR81">
         <v>43</v>
@@ -49077,7 +49077,7 @@
         <v>50</v>
       </c>
       <c r="CY81">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="CZ81">
         <v>44</v>
@@ -49122,10 +49122,10 @@
         <v>55</v>
       </c>
       <c r="DN81">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="DO81">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DP81">
         <v>48</v>
@@ -49227,13 +49227,13 @@
         <v>110</v>
       </c>
       <c r="EW81">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="EX81">
         <v>101</v>
       </c>
       <c r="EY81">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="EZ81">
         <v>112</v>
@@ -49296,7 +49296,7 @@
         <v>86</v>
       </c>
       <c r="FT81">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="FU81">
         <v>81</v>
@@ -49305,7 +49305,7 @@
         <v>78</v>
       </c>
       <c r="FW81">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="FX81">
         <v>73</v>
@@ -49505,7 +49505,7 @@
         <v>227</v>
       </c>
       <c r="AR82">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AS82">
         <v>192</v>
@@ -49544,13 +49544,13 @@
         <v>97</v>
       </c>
       <c r="BE82">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BF82">
         <v>105</v>
       </c>
       <c r="BG82">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BH82">
         <v>103</v>
@@ -49565,7 +49565,7 @@
         <v>98</v>
       </c>
       <c r="BL82">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BM82">
         <v>98</v>
@@ -49577,7 +49577,7 @@
         <v>87</v>
       </c>
       <c r="BP82">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BQ82">
         <v>84</v>
@@ -49604,7 +49604,7 @@
         <v>63</v>
       </c>
       <c r="BY82">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BZ82">
         <v>58</v>
@@ -49652,7 +49652,7 @@
         <v>58</v>
       </c>
       <c r="CO82">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="CP82">
         <v>57</v>
@@ -49661,7 +49661,7 @@
         <v>42</v>
       </c>
       <c r="CR82">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="CS82">
         <v>36</v>
@@ -49787,7 +49787,7 @@
         <v>97</v>
       </c>
       <c r="EH82">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="EI82">
         <v>105</v>
@@ -49922,7 +49922,7 @@
         <v>67</v>
       </c>
       <c r="GA82">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="GB82">
         <v>67</v>
@@ -50170,7 +50170,7 @@
         <v>79</v>
       </c>
       <c r="BL83">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BM83">
         <v>83</v>
@@ -50260,10 +50260,10 @@
         <v>60</v>
       </c>
       <c r="CP83">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CQ83">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="CR83">
         <v>37</v>
@@ -50278,7 +50278,7 @@
         <v>34</v>
       </c>
       <c r="CV83">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CW83">
         <v>39</v>
@@ -50431,10 +50431,10 @@
         <v>148</v>
       </c>
       <c r="EU83">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EV83">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="EW83">
         <v>121</v>
@@ -50443,7 +50443,7 @@
         <v>107</v>
       </c>
       <c r="EY83">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="EZ83">
         <v>112</v>
@@ -50718,7 +50718,7 @@
         <v>223</v>
       </c>
       <c r="AS84">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AT84">
         <v>172</v>
@@ -50727,7 +50727,7 @@
         <v>127</v>
       </c>
       <c r="AV84">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AW84">
         <v>92</v>
@@ -50772,7 +50772,7 @@
         <v>78</v>
       </c>
       <c r="BK84">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BL84">
         <v>74</v>
@@ -50850,7 +50850,7 @@
         <v>53</v>
       </c>
       <c r="CK84">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CL84">
         <v>40</v>
@@ -51033,7 +51033,7 @@
         <v>136</v>
       </c>
       <c r="ET84">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="EU84">
         <v>150</v>
@@ -51126,10 +51126,10 @@
         <v>62</v>
       </c>
       <c r="FY84">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="FZ84">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="GA84">
         <v>59</v>
@@ -51323,7 +51323,7 @@
         <v>222</v>
       </c>
       <c r="AS85">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AT85">
         <v>180</v>
@@ -51332,7 +51332,7 @@
         <v>133</v>
       </c>
       <c r="AV85">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AW85">
         <v>89</v>
@@ -51656,7 +51656,7 @@
         <v>122</v>
       </c>
       <c r="EZ85">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="FA85">
         <v>119</v>
@@ -51695,10 +51695,10 @@
         <v>68</v>
       </c>
       <c r="FM85">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FN85">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="FO85">
         <v>66</v>
@@ -51785,7 +51785,7 @@
         <v>53</v>
       </c>
       <c r="GQ85">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="GR85">
         <v>55</v>
@@ -52201,7 +52201,7 @@
         <v>106</v>
       </c>
       <c r="EF86">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="EG86">
         <v>105</v>
@@ -52303,7 +52303,7 @@
         <v>68</v>
       </c>
       <c r="FN86">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FO86">
         <v>68</v>
@@ -52336,10 +52336,10 @@
         <v>59</v>
       </c>
       <c r="FY86">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="FZ86">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="GA86">
         <v>58</v>
@@ -52351,7 +52351,7 @@
         <v>61</v>
       </c>
       <c r="GD86">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="GE86">
         <v>64</v>
@@ -52533,7 +52533,7 @@
         <v>225</v>
       </c>
       <c r="AS87">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AT87">
         <v>196</v>
@@ -52860,7 +52860,7 @@
         <v>140</v>
       </c>
       <c r="EX87">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="EY87">
         <v>145</v>
@@ -52941,7 +52941,7 @@
         <v>57</v>
       </c>
       <c r="FY87">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="FZ87">
         <v>56</v>
@@ -52953,7 +52953,7 @@
         <v>56</v>
       </c>
       <c r="GC87">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="GD87">
         <v>59</v>
@@ -52980,7 +52980,7 @@
         <v>54</v>
       </c>
       <c r="GL87">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="GM87">
         <v>51</v>
@@ -53141,7 +53141,7 @@
         <v>214</v>
       </c>
       <c r="AT88">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AU88">
         <v>151</v>
@@ -53288,7 +53288,7 @@
         <v>71</v>
       </c>
       <c r="CQ88">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CR88">
         <v>38</v>
@@ -53381,7 +53381,7 @@
         <v>92</v>
       </c>
       <c r="DV88">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="DW88">
         <v>99</v>
@@ -53402,7 +53402,7 @@
         <v>95</v>
       </c>
       <c r="EC88">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="ED88">
         <v>100</v>
@@ -53420,7 +53420,7 @@
         <v>105</v>
       </c>
       <c r="EI88">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="EJ88">
         <v>101</v>
@@ -53456,7 +53456,7 @@
         <v>125</v>
       </c>
       <c r="EU88">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="EV88">
         <v>132</v>
@@ -53501,10 +53501,10 @@
         <v>71</v>
       </c>
       <c r="FJ88">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="FK88">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="FL88">
         <v>64</v>
@@ -53531,7 +53531,7 @@
         <v>67</v>
       </c>
       <c r="FT88">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="FU88">
         <v>66</v>
@@ -53546,7 +53546,7 @@
         <v>55</v>
       </c>
       <c r="FY88">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="FZ88">
         <v>53</v>
@@ -53555,10 +53555,10 @@
         <v>52</v>
       </c>
       <c r="GB88">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="GC88">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="GD88">
         <v>56</v>
@@ -53591,10 +53591,10 @@
         <v>52</v>
       </c>
       <c r="GN88">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="GO88">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="GP88">
         <v>51</v>
@@ -53806,7 +53806,7 @@
         <v>86</v>
       </c>
       <c r="BN89">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BO89">
         <v>84</v>
@@ -53986,7 +53986,7 @@
         <v>84</v>
       </c>
       <c r="DV89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="DW89">
         <v>95</v>
@@ -54022,7 +54022,7 @@
         <v>107</v>
       </c>
       <c r="EH89">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="EI89">
         <v>100</v>
@@ -54079,13 +54079,13 @@
         <v>148</v>
       </c>
       <c r="FA89">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="FB89">
         <v>128</v>
       </c>
       <c r="FC89">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="FD89">
         <v>104</v>
@@ -54103,7 +54103,7 @@
         <v>84</v>
       </c>
       <c r="FI89">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="FJ89">
         <v>66</v>
@@ -54139,7 +54139,7 @@
         <v>66</v>
       </c>
       <c r="FU89">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="FV89">
         <v>63</v>
@@ -54190,7 +54190,7 @@
         <v>52</v>
       </c>
       <c r="GL89">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="GM89">
         <v>52</v>
@@ -54720,7 +54720,7 @@
         <v>61</v>
       </c>
       <c r="FM90">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="FN90">
         <v>65</v>
@@ -54789,7 +54789,7 @@
         <v>52</v>
       </c>
       <c r="GJ90">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="GK90">
         <v>52</v>
@@ -55211,7 +55211,7 @@
         <v>98</v>
       </c>
       <c r="EA91">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="EB91">
         <v>94</v>
@@ -55301,7 +55301,7 @@
         <v>102</v>
       </c>
       <c r="FE91">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="FF91">
         <v>90</v>
@@ -55313,7 +55313,7 @@
         <v>79</v>
       </c>
       <c r="FI91">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="FJ91">
         <v>60</v>
@@ -55322,7 +55322,7 @@
         <v>57</v>
       </c>
       <c r="FL91">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="FM91">
         <v>59</v>
@@ -55358,7 +55358,7 @@
         <v>56</v>
       </c>
       <c r="FX91">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="FY91">
         <v>50</v>
@@ -55597,7 +55597,7 @@
         <v>44</v>
       </c>
       <c r="BF92">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BG92">
         <v>47</v>
@@ -55612,7 +55612,7 @@
         <v>61</v>
       </c>
       <c r="BK92">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BL92">
         <v>66</v>
@@ -55810,7 +55810,7 @@
         <v>92</v>
       </c>
       <c r="DY92">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="DZ92">
         <v>91</v>
@@ -55912,13 +55912,13 @@
         <v>90</v>
       </c>
       <c r="FG92">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="FH92">
         <v>76</v>
       </c>
       <c r="FI92">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="FJ92">
         <v>58</v>
@@ -56002,7 +56002,7 @@
         <v>50</v>
       </c>
       <c r="GK92">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="GL92">
         <v>50</v>
@@ -56864,7 +56864,7 @@
         <v>46</v>
       </c>
       <c r="BY94">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BZ94">
         <v>43</v>
@@ -57508,7 +57508,7 @@
         <v>33</v>
       </c>
       <c r="CL95">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CM95">
         <v>34</v>
@@ -57646,7 +57646,7 @@
         <v>87</v>
       </c>
       <c r="EF95">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="EG95">
         <v>87</v>
@@ -57799,7 +57799,7 @@
         <v>51</v>
       </c>
       <c r="GE95">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="GF95">
         <v>50</v>
@@ -58631,7 +58631,7 @@
         <v>39</v>
       </c>
       <c r="BI97">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BJ97">
         <v>45</v>
@@ -58649,7 +58649,7 @@
         <v>40</v>
       </c>
       <c r="BO97">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BP97">
         <v>39</v>
@@ -58667,7 +58667,7 @@
         <v>44</v>
       </c>
       <c r="BU97">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BV97">
         <v>38</v>
@@ -58712,7 +58712,7 @@
         <v>44</v>
       </c>
       <c r="CJ97">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="CK97">
         <v>59</v>
@@ -58955,7 +58955,7 @@
         <v>55</v>
       </c>
       <c r="FM97">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="FN97">
         <v>50</v>
@@ -59012,7 +59012,7 @@
         <v>50</v>
       </c>
       <c r="GF97">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="GG97">
         <v>49</v>
@@ -59036,7 +59036,7 @@
         <v>45</v>
       </c>
       <c r="GN97">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="GO97">
         <v>45</v>
@@ -59308,7 +59308,7 @@
         <v>43</v>
       </c>
       <c r="CG98">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="CH98">
         <v>53</v>
@@ -59320,7 +59320,7 @@
         <v>61</v>
       </c>
       <c r="CK98">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="CL98">
         <v>65</v>
@@ -59554,10 +59554,10 @@
         <v>83</v>
       </c>
       <c r="FK98">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="FL98">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="FM98">
         <v>51</v>
@@ -59566,7 +59566,7 @@
         <v>50</v>
       </c>
       <c r="FO98">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="FP98">
         <v>50</v>
@@ -59874,7 +59874,7 @@
         <v>32</v>
       </c>
       <c r="BT99">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BU99">
         <v>30</v>
@@ -59913,10 +59913,10 @@
         <v>51</v>
       </c>
       <c r="CG99">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CH99">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CI99">
         <v>60</v>
@@ -60114,7 +60114,7 @@
         <v>99</v>
       </c>
       <c r="EV99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="EW99">
         <v>100</v>
@@ -60144,10 +60144,10 @@
         <v>134</v>
       </c>
       <c r="FF99">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="FG99">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="FH99">
         <v>133</v>
@@ -60222,7 +60222,7 @@
         <v>49</v>
       </c>
       <c r="GF99">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="GG99">
         <v>48</v>
@@ -60243,10 +60243,10 @@
         <v>47</v>
       </c>
       <c r="GM99">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="GN99">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="GO99">
         <v>48</v>
@@ -60255,7 +60255,7 @@
         <v>47</v>
       </c>
       <c r="GQ99">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="GR99">
         <v>44</v>
@@ -60479,7 +60479,7 @@
         <v>33</v>
       </c>
       <c r="BT100">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BU100">
         <v>37</v>
@@ -60512,7 +60512,7 @@
         <v>70</v>
       </c>
       <c r="CE100">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="CF100">
         <v>65</v>
@@ -60524,7 +60524,7 @@
         <v>71</v>
       </c>
       <c r="CI100">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CJ100">
         <v>53</v>
@@ -60635,7 +60635,7 @@
         <v>66</v>
       </c>
       <c r="DT100">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="DU100">
         <v>81</v>
@@ -60707,16 +60707,16 @@
         <v>104</v>
       </c>
       <c r="ER100">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="ES100">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="ET100">
         <v>99</v>
       </c>
       <c r="EU100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="EV100">
         <v>104</v>
@@ -60755,7 +60755,7 @@
         <v>139</v>
       </c>
       <c r="FH100">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="FI100">
         <v>129</v>
@@ -60764,7 +60764,7 @@
         <v>113</v>
       </c>
       <c r="FK100">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="FL100">
         <v>67</v>
@@ -60854,13 +60854,13 @@
         <v>49</v>
       </c>
       <c r="GO100">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="GP100">
         <v>47</v>
       </c>
       <c r="GQ100">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="GR100">
         <v>46</v>
@@ -61084,7 +61084,7 @@
         <v>36</v>
       </c>
       <c r="BT101">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BU101">
         <v>42</v>
@@ -61321,7 +61321,7 @@
         <v>95</v>
       </c>
       <c r="EU101">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="EV101">
         <v>105</v>
@@ -61408,7 +61408,7 @@
         <v>52</v>
       </c>
       <c r="FX101">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="FY101">
         <v>50</v>
@@ -61456,10 +61456,10 @@
         <v>48</v>
       </c>
       <c r="GN101">
+        <v>49</v>
+      </c>
+      <c r="GO101">
         <v>48</v>
-      </c>
-      <c r="GO101">
-        <v>47</v>
       </c>
       <c r="GP101">
         <v>47</v>
